--- a/vectorSearchTesting/timings_avarage_20_40_60_question_score_0_86.xlsx
+++ b/vectorSearchTesting/timings_avarage_20_40_60_question_score_0_86.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krisztina_PC\flask-chatbot\vectorSearchTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97002983-E264-4049-9E59-1278CE34C6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25D5E1F-2807-4663-9578-9BF222BDF222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D94ACEB1-4E2E-4F79-9EEB-1A71DB999283}"/>
   </bookViews>
@@ -38,33 +38,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
-    <t xml:space="preserve"> kérdések száma</t>
-  </si>
-  <si>
-    <t>embedding  generálásai idő átlaga</t>
-  </si>
-  <si>
-    <t>kontextus összeállitási idő átlaga</t>
-  </si>
-  <si>
     <t>LLM feldolgozási idő átlaga</t>
   </si>
   <si>
-    <t>teljes feldoldozási idő átlaga</t>
-  </si>
-  <si>
-    <t>szemantikus hasonlóság mérékének  (BERTScore F1) átlaga (0-1) között</t>
-  </si>
-  <si>
     <t>0.65/s</t>
   </si>
   <si>
     <t>0.91/s</t>
   </si>
   <si>
-    <t>score: 0.86; LLM modell: gemini-2.0-flash; top_k=50</t>
-  </si>
-  <si>
     <t>0.68/s</t>
   </si>
   <si>
@@ -93,6 +75,24 @@
   </si>
   <si>
     <t>3.46/s</t>
+  </si>
+  <si>
+    <t>küszöbérték: 0.86; LLM modell: gemini-2.0-flash; top_k=50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kérdések száma</t>
+  </si>
+  <si>
+    <t>Embedding  generálásai idő átlaga</t>
+  </si>
+  <si>
+    <t>Kontextus összeállitási idő átlaga</t>
+  </si>
+  <si>
+    <t>Teljes feldoldozási idő átlaga</t>
+  </si>
+  <si>
+    <t>Szemantikus hasonlóság mérékének  (BERTScore F1) átlaga (0-1) között</t>
   </si>
 </sst>
 </file>
@@ -164,12 +164,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -178,6 +172,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,7 +516,7 @@
   <dimension ref="B5:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,92 +531,92 @@
   <sheetData>
     <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="2:7" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>20</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2">
         <v>0.86</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>40</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2">
         <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>60</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2">
         <v>0.83</v>
       </c>
     </row>
